--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
+++ b/Logging_VARMLANDS_LAN/Logging_FILIPSTAD/Översikt FILIPSTAD.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45114</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>45114</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
         <v>45114</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45114</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>45114</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         <v>45120</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         <v>45124</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>45124</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         <v>45124</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>45124</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         <v>45124</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
